--- a/src/assets/specimen_teleostei_embryo.xlsx
+++ b/src/assets/specimen_teleostei_embryo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249682A1-2C14-CF4C-A714-ECEDA6865085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53390484-27C7-4C41-A03C-F49C1D2E3CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="2300" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{C816AF71-4E58-B44A-8DC2-C3202B0DE312}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16220" activeTab="3" xr2:uid="{C816AF71-4E58-B44A-8DC2-C3202B0DE312}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Submission Title</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Generations From Wild</t>
+  </si>
+  <si>
+    <t>Geographic Location</t>
   </si>
 </sst>
 </file>
@@ -661,9 +664,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587D7D8-6897-0E4D-81EA-390E6F7A23BC}">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -677,58 +682,59 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -760,150 +766,153 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AT1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AV1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AX1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
